--- a/excel_exam.xlsx
+++ b/excel_exam.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc954deabf6f6732/Easy_Python/prj_EasyPython/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoseo\easyPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{76476224-A389-461C-80BA-E062FF038C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC159BAD-020A-46CA-B172-C30ECF3DF1DB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B7A8B0-DF3D-4A6B-A9ED-B5A96AA34DFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53560" yWindow="6440" windowWidth="8070" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53565" yWindow="6435" windowWidth="8070" windowHeight="8700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +40,10 @@
   </si>
   <si>
     <t>nclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,11 +437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="A1:E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -470,7 +477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -487,7 +494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -504,7 +511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -521,7 +528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -538,7 +545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -555,7 +562,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -572,7 +579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -589,7 +596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -606,7 +613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -623,7 +630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -640,7 +647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -657,7 +664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -674,7 +681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -691,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -708,7 +715,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -725,7 +732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -742,7 +749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -759,7 +766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -776,7 +783,381 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAC43A7-A9DB-4630-B55A-3E61A1169332}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>97</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>98</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>78</v>
+      </c>
+      <c r="E19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
